--- a/DATA/American_DRB1_Freq.xlsx
+++ b/DATA/American_DRB1_Freq.xlsx
@@ -271,9 +271,6 @@
     <t>DRB1*01:09</t>
   </si>
   <si>
-    <t>DRB1*04:07g</t>
-  </si>
-  <si>
     <t>DRB1*01:28</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>DRB1*12:15</t>
   </si>
   <si>
-    <t>DRB1*07:10N</t>
-  </si>
-  <si>
     <t>DRB1*14:19</t>
   </si>
   <si>
@@ -694,12 +688,6 @@
     <t>DRB1*04:02</t>
   </si>
   <si>
-    <t>DRB1*15:17N</t>
-  </si>
-  <si>
-    <t>DRB1*12:01g</t>
-  </si>
-  <si>
     <t>DRB1*13:25</t>
   </si>
   <si>
@@ -724,9 +712,6 @@
     <t>DRB1*04:83</t>
   </si>
   <si>
-    <t>DRB1*11:01g</t>
-  </si>
-  <si>
     <t>DRB1*03:27</t>
   </si>
   <si>
@@ -901,9 +886,6 @@
     <t>DRB1*15:38</t>
   </si>
   <si>
-    <t>DRB1*14:01g</t>
-  </si>
-  <si>
     <t>DRB1*03:51</t>
   </si>
   <si>
@@ -1411,9 +1393,6 @@
     <t>DRB1*03:39</t>
   </si>
   <si>
-    <t>DRB1*12:24N</t>
-  </si>
-  <si>
     <t>DRB1*03:08</t>
   </si>
   <si>
@@ -1585,9 +1564,6 @@
     <t>DRB1*11:05</t>
   </si>
   <si>
-    <t>DRB1*15:50N</t>
-  </si>
-  <si>
     <t>DRB1*14:07</t>
   </si>
   <si>
@@ -1640,6 +1616,30 @@
   </si>
   <si>
     <t>AME_freq</t>
+  </si>
+  <si>
+    <t>DRB1*04:07</t>
+  </si>
+  <si>
+    <t>DRB1*11:01</t>
+  </si>
+  <si>
+    <t>DRB1*12:01</t>
+  </si>
+  <si>
+    <t>DRB1*14:01</t>
+  </si>
+  <si>
+    <t>DRB1*07:10</t>
+  </si>
+  <si>
+    <t>DRB1*12:24</t>
+  </si>
+  <si>
+    <t>DRB1*15:17</t>
+  </si>
+  <si>
+    <t>DRB1*15:50</t>
   </si>
 </sst>
 </file>
@@ -1994,8 +1994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB516"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A449" workbookViewId="0">
-      <selection activeCell="B485" sqref="B485"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B2" s="3">
         <f>(13.4673366834171/100)*C2+(6.03015075376885/100)*D2+(61.0050251256282/100)*E2+(18.1909547738694/100)*F2+(1.30653266331658/100)*G2</f>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B3" s="3">
         <f t="shared" ref="B3:B66" si="0">(13.4673366834171/100)*C3+(6.03015075376885/100)*D3+(61.0050251256282/100)*E3+(18.1909547738694/100)*F3+(1.30653266331658/100)*G3</f>
@@ -2267,7 +2267,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B4" s="3">
         <f t="shared" si="0"/>
@@ -2441,7 +2441,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B6" s="3">
         <f t="shared" si="0"/>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B7" s="3">
         <f t="shared" si="0"/>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B8" s="3">
         <f t="shared" si="0"/>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B10" s="3">
         <f t="shared" si="0"/>
@@ -2876,7 +2876,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B11" s="3">
         <f t="shared" si="0"/>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B12" s="3">
         <f t="shared" si="0"/>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B13" s="3">
         <f t="shared" si="0"/>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B14" s="3">
         <f t="shared" si="0"/>
@@ -3224,7 +3224,7 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B15" s="3">
         <f t="shared" si="0"/>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B16" s="3">
         <f t="shared" si="0"/>
@@ -3398,7 +3398,7 @@
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B17" s="3">
         <f t="shared" si="0"/>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B18" s="3">
         <f t="shared" si="0"/>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B19" s="3">
         <f t="shared" si="0"/>
@@ -3659,7 +3659,7 @@
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B20" s="3">
         <f t="shared" si="0"/>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B21" s="3">
         <f t="shared" si="0"/>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3">
         <f t="shared" si="0"/>
@@ -3920,7 +3920,7 @@
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B23" s="3">
         <f t="shared" si="0"/>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B24" s="3">
         <f t="shared" si="0"/>
@@ -4094,7 +4094,7 @@
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B25" s="3">
         <f t="shared" si="0"/>
@@ -4181,7 +4181,7 @@
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" si="0"/>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B27" s="3">
         <f t="shared" si="0"/>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B29" s="3">
         <f t="shared" si="0"/>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B30" s="3">
         <f t="shared" si="0"/>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B31" s="3">
         <f t="shared" si="0"/>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B32" s="3">
         <f t="shared" si="0"/>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B34" s="3">
         <f t="shared" si="0"/>
@@ -4964,7 +4964,7 @@
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B35" s="3">
         <f t="shared" si="0"/>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="B36" s="3">
         <f t="shared" si="0"/>
@@ -5225,7 +5225,7 @@
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B38" s="3">
         <f t="shared" si="0"/>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B39" s="3">
         <f t="shared" si="0"/>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="3">
         <f t="shared" si="0"/>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B41" s="3">
         <f t="shared" si="0"/>
@@ -5573,7 +5573,7 @@
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B42" s="3">
         <f t="shared" si="0"/>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B43" s="3">
         <f t="shared" si="0"/>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B44" s="3">
         <f t="shared" si="0"/>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="3">
         <f t="shared" si="0"/>
@@ -5921,7 +5921,7 @@
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B46" s="3">
         <f t="shared" si="0"/>
@@ -6008,7 +6008,7 @@
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B47" s="3">
         <f t="shared" si="0"/>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B48" s="3">
         <f t="shared" si="0"/>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="B49" s="3">
         <f t="shared" si="0"/>
@@ -6269,7 +6269,7 @@
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B50" s="3">
         <f t="shared" si="0"/>
@@ -6356,7 +6356,7 @@
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B51" s="3">
         <f t="shared" si="0"/>
@@ -6443,7 +6443,7 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B52" s="3">
         <f t="shared" si="0"/>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B53" s="3">
         <f t="shared" si="0"/>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B54" s="3">
         <f t="shared" si="0"/>
@@ -6704,7 +6704,7 @@
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B55" s="3">
         <f t="shared" si="0"/>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B56" s="3">
         <f t="shared" si="0"/>
@@ -6878,7 +6878,7 @@
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57" s="3">
         <f t="shared" si="0"/>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="3">
         <f t="shared" si="0"/>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B59" s="3">
         <f t="shared" si="0"/>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B61" s="3">
         <f t="shared" si="0"/>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B62" s="3">
         <f t="shared" si="0"/>
@@ -7400,7 +7400,7 @@
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B63" s="3">
         <f t="shared" si="0"/>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B64" s="3">
         <f t="shared" si="0"/>
@@ -7574,7 +7574,7 @@
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B65" s="3">
         <f t="shared" si="0"/>
@@ -7661,7 +7661,7 @@
     </row>
     <row r="66" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" s="3">
         <f t="shared" si="0"/>
@@ -7748,7 +7748,7 @@
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B67" s="3">
         <f t="shared" ref="B67:B130" si="1">(13.4673366834171/100)*C67+(6.03015075376885/100)*D67+(61.0050251256282/100)*E67+(18.1909547738694/100)*F67+(1.30653266331658/100)*G67</f>
@@ -7835,7 +7835,7 @@
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B68" s="3">
         <f t="shared" si="1"/>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B69" s="3">
         <f t="shared" si="1"/>
@@ -8009,7 +8009,7 @@
     </row>
     <row r="70" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B70" s="3">
         <f t="shared" si="1"/>
@@ -8096,7 +8096,7 @@
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="B71" s="3">
         <f t="shared" si="1"/>
@@ -8270,7 +8270,7 @@
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B73" s="3">
         <f t="shared" si="1"/>
@@ -8444,7 +8444,7 @@
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B75" s="3">
         <f t="shared" si="1"/>
@@ -8531,7 +8531,7 @@
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B76" s="3">
         <f t="shared" si="1"/>
@@ -8618,7 +8618,7 @@
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B77" s="3">
         <f t="shared" si="1"/>
@@ -8705,7 +8705,7 @@
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B78" s="3">
         <f t="shared" si="1"/>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B79" s="3">
         <f t="shared" si="1"/>
@@ -8966,7 +8966,7 @@
     </row>
     <row r="81" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B81" s="3">
         <f t="shared" si="1"/>
@@ -9053,7 +9053,7 @@
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>534</v>
       </c>
       <c r="B82" s="3">
         <f t="shared" si="1"/>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B83" s="3">
         <f t="shared" si="1"/>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B84" s="3">
         <f t="shared" si="1"/>
@@ -9314,7 +9314,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B85" s="3">
         <f t="shared" si="1"/>
@@ -9401,7 +9401,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B86" s="3">
         <f t="shared" si="1"/>
@@ -9488,7 +9488,7 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B87" s="3">
         <f t="shared" si="1"/>
@@ -9575,7 +9575,7 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="3">
         <f t="shared" si="1"/>
@@ -9662,7 +9662,7 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B89" s="3">
         <f t="shared" si="1"/>
@@ -9749,7 +9749,7 @@
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B90" s="3">
         <f t="shared" si="1"/>
@@ -9836,7 +9836,7 @@
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B91" s="3">
         <f t="shared" si="1"/>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B92" s="3">
         <f t="shared" si="1"/>
@@ -10010,7 +10010,7 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B93" s="3">
         <f t="shared" si="1"/>
@@ -10097,7 +10097,7 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B94" s="3">
         <f t="shared" si="1"/>
@@ -10184,7 +10184,7 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B95" s="3">
         <f t="shared" si="1"/>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B96" s="3">
         <f t="shared" si="1"/>
@@ -10445,7 +10445,7 @@
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B98" s="3">
         <f t="shared" si="1"/>
@@ -10619,7 +10619,7 @@
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B100" s="3">
         <f t="shared" si="1"/>
@@ -10706,7 +10706,7 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B101" s="3">
         <f t="shared" si="1"/>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B102" s="3">
         <f t="shared" si="1"/>
@@ -10880,7 +10880,7 @@
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B103" s="3">
         <f t="shared" si="1"/>
@@ -10967,7 +10967,7 @@
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="B104" s="3">
         <f t="shared" si="1"/>
@@ -11054,7 +11054,7 @@
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B105" s="3">
         <f t="shared" si="1"/>
@@ -11141,7 +11141,7 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="B106" s="3">
         <f t="shared" si="1"/>
@@ -11228,7 +11228,7 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B107" s="3">
         <f t="shared" si="1"/>
@@ -11315,7 +11315,7 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B108" s="3">
         <f t="shared" si="1"/>
@@ -11402,7 +11402,7 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B109" s="3">
         <f t="shared" si="1"/>
@@ -11489,7 +11489,7 @@
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B110" s="3">
         <f t="shared" si="1"/>
@@ -11576,7 +11576,7 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B111" s="3">
         <f t="shared" si="1"/>
@@ -11663,7 +11663,7 @@
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B112" s="3">
         <f t="shared" si="1"/>
@@ -11750,7 +11750,7 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B113" s="3">
         <f t="shared" si="1"/>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="B114" s="3">
         <f t="shared" si="1"/>
@@ -11924,7 +11924,7 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B115" s="3">
         <f t="shared" si="1"/>
@@ -12098,7 +12098,7 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B117" s="3">
         <f t="shared" si="1"/>
@@ -12185,7 +12185,7 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B118" s="3">
         <f t="shared" si="1"/>
@@ -12272,7 +12272,7 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B119" s="3">
         <f t="shared" si="1"/>
@@ -12359,7 +12359,7 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B120" s="3">
         <f t="shared" si="1"/>
@@ -12446,7 +12446,7 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B121" s="3">
         <f t="shared" si="1"/>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B122" s="3">
         <f t="shared" si="1"/>
@@ -12620,7 +12620,7 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B123" s="3">
         <f t="shared" si="1"/>
@@ -12794,7 +12794,7 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B125" s="3">
         <f t="shared" si="1"/>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B126" s="3">
         <f t="shared" si="1"/>
@@ -12968,7 +12968,7 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B127" s="3">
         <f t="shared" si="1"/>
@@ -13055,7 +13055,7 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B128" s="3">
         <f t="shared" si="1"/>
@@ -13142,7 +13142,7 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B129" s="3">
         <f t="shared" si="1"/>
@@ -13316,7 +13316,7 @@
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B131" s="3">
         <f t="shared" ref="B131:B194" si="2">(13.4673366834171/100)*C131+(6.03015075376885/100)*D131+(61.0050251256282/100)*E131+(18.1909547738694/100)*F131+(1.30653266331658/100)*G131</f>
@@ -13403,7 +13403,7 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B132" s="3">
         <f t="shared" si="2"/>
@@ -13490,7 +13490,7 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B133" s="3">
         <f t="shared" si="2"/>
@@ -13577,7 +13577,7 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B134" s="3">
         <f t="shared" si="2"/>
@@ -13664,7 +13664,7 @@
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B135" s="3">
         <f t="shared" si="2"/>
@@ -13838,7 +13838,7 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="B137" s="3">
         <f t="shared" si="2"/>
@@ -13925,7 +13925,7 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B138" s="3">
         <f t="shared" si="2"/>
@@ -14012,7 +14012,7 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B139" s="3">
         <f t="shared" si="2"/>
@@ -14099,7 +14099,7 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B140" s="3">
         <f t="shared" si="2"/>
@@ -14273,7 +14273,7 @@
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B142" s="3">
         <f t="shared" si="2"/>
@@ -14360,7 +14360,7 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B143" s="3">
         <f t="shared" si="2"/>
@@ -14447,7 +14447,7 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B144" s="3">
         <f t="shared" si="2"/>
@@ -14534,7 +14534,7 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B145" s="3">
         <f t="shared" si="2"/>
@@ -14621,7 +14621,7 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B146" s="3">
         <f t="shared" si="2"/>
@@ -14708,7 +14708,7 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>129</v>
+        <v>538</v>
       </c>
       <c r="B147" s="3">
         <f t="shared" si="2"/>
@@ -14795,7 +14795,7 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B148" s="3">
         <f t="shared" si="2"/>
@@ -14882,7 +14882,7 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B149" s="3">
         <f t="shared" si="2"/>
@@ -14969,7 +14969,7 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B150" s="3">
         <f t="shared" si="2"/>
@@ -15056,7 +15056,7 @@
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B151" s="3">
         <f t="shared" si="2"/>
@@ -15143,7 +15143,7 @@
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B152" s="3">
         <f t="shared" si="2"/>
@@ -15230,7 +15230,7 @@
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B153" s="3">
         <f t="shared" si="2"/>
@@ -15317,7 +15317,7 @@
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B154" s="3">
         <f t="shared" si="2"/>
@@ -15404,7 +15404,7 @@
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B155" s="3">
         <f t="shared" si="2"/>
@@ -15491,7 +15491,7 @@
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B156" s="3">
         <f t="shared" si="2"/>
@@ -15578,7 +15578,7 @@
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B157" s="3">
         <f t="shared" si="2"/>
@@ -15752,7 +15752,7 @@
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B159" s="3">
         <f t="shared" si="2"/>
@@ -15839,7 +15839,7 @@
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B160" s="3">
         <f t="shared" si="2"/>
@@ -15926,7 +15926,7 @@
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B161" s="3">
         <f t="shared" si="2"/>
@@ -16013,7 +16013,7 @@
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B162" s="3">
         <f t="shared" si="2"/>
@@ -16100,7 +16100,7 @@
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B163" s="3">
         <f t="shared" si="2"/>
@@ -16274,7 +16274,7 @@
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B165" s="3">
         <f t="shared" si="2"/>
@@ -16361,7 +16361,7 @@
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B166" s="3">
         <f t="shared" si="2"/>
@@ -16448,7 +16448,7 @@
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B167" s="3">
         <f t="shared" si="2"/>
@@ -16535,7 +16535,7 @@
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B168" s="3">
         <f t="shared" si="2"/>
@@ -16622,7 +16622,7 @@
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B169" s="3">
         <f t="shared" si="2"/>
@@ -16709,7 +16709,7 @@
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B170" s="3">
         <f t="shared" si="2"/>
@@ -16796,7 +16796,7 @@
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B171" s="3">
         <f t="shared" si="2"/>
@@ -16883,7 +16883,7 @@
     </row>
     <row r="172" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B172" s="3">
         <f t="shared" si="2"/>
@@ -16970,7 +16970,7 @@
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B173" s="3">
         <f t="shared" si="2"/>
@@ -17057,7 +17057,7 @@
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B174" s="3">
         <f t="shared" si="2"/>
@@ -17144,7 +17144,7 @@
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B175" s="3">
         <f t="shared" si="2"/>
@@ -17231,7 +17231,7 @@
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B176" s="3">
         <f t="shared" si="2"/>
@@ -17318,7 +17318,7 @@
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B177" s="3">
         <f t="shared" si="2"/>
@@ -17405,7 +17405,7 @@
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B178" s="3">
         <f t="shared" si="2"/>
@@ -17492,7 +17492,7 @@
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B179" s="3">
         <f t="shared" si="2"/>
@@ -17579,7 +17579,7 @@
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B180" s="3">
         <f t="shared" si="2"/>
@@ -17753,7 +17753,7 @@
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B182" s="3">
         <f t="shared" si="2"/>
@@ -17927,7 +17927,7 @@
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B184" s="3">
         <f t="shared" si="2"/>
@@ -18014,7 +18014,7 @@
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B185" s="3">
         <f t="shared" si="2"/>
@@ -18101,7 +18101,7 @@
     </row>
     <row r="186" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B186" s="3">
         <f t="shared" si="2"/>
@@ -18188,7 +18188,7 @@
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B187" s="3">
         <f t="shared" si="2"/>
@@ -18275,7 +18275,7 @@
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B188" s="3">
         <f t="shared" si="2"/>
@@ -18362,7 +18362,7 @@
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B189" s="3">
         <f t="shared" si="2"/>
@@ -18449,7 +18449,7 @@
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B190" s="3">
         <f t="shared" si="2"/>
@@ -18536,7 +18536,7 @@
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B191" s="3">
         <f t="shared" si="2"/>
@@ -18623,7 +18623,7 @@
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B192" s="3">
         <f t="shared" si="2"/>
@@ -18710,7 +18710,7 @@
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B193" s="3">
         <f t="shared" si="2"/>
@@ -18797,7 +18797,7 @@
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B194" s="3">
         <f t="shared" si="2"/>
@@ -18971,7 +18971,7 @@
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B196" s="3">
         <f t="shared" si="3"/>
@@ -19058,7 +19058,7 @@
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B197" s="3">
         <f t="shared" si="3"/>
@@ -19145,7 +19145,7 @@
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B198" s="3">
         <f t="shared" si="3"/>
@@ -19232,7 +19232,7 @@
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>236</v>
+        <v>535</v>
       </c>
       <c r="B199" s="3">
         <f t="shared" si="3"/>
@@ -19319,7 +19319,7 @@
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B200" s="3">
         <f t="shared" si="3"/>
@@ -19406,7 +19406,7 @@
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="B201" s="3">
         <f t="shared" si="3"/>
@@ -19493,7 +19493,7 @@
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B202" s="3">
         <f t="shared" si="3"/>
@@ -19580,7 +19580,7 @@
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="B203" s="3">
         <f t="shared" si="3"/>
@@ -19667,7 +19667,7 @@
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B204" s="3">
         <f t="shared" si="3"/>
@@ -19754,7 +19754,7 @@
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B205" s="3">
         <f t="shared" si="3"/>
@@ -19928,7 +19928,7 @@
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B207" s="3">
         <f t="shared" si="3"/>
@@ -20015,7 +20015,7 @@
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B208" s="3">
         <f t="shared" si="3"/>
@@ -20102,7 +20102,7 @@
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B209" s="3">
         <f t="shared" si="3"/>
@@ -20276,7 +20276,7 @@
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B211" s="3">
         <f t="shared" si="3"/>
@@ -20363,7 +20363,7 @@
     </row>
     <row r="212" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B212" s="3">
         <f t="shared" si="3"/>
@@ -20450,7 +20450,7 @@
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B213" s="3">
         <f t="shared" si="3"/>
@@ -20537,7 +20537,7 @@
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B214" s="3">
         <f t="shared" si="3"/>
@@ -20711,7 +20711,7 @@
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B216" s="3">
         <f t="shared" si="3"/>
@@ -20798,7 +20798,7 @@
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B217" s="3">
         <f t="shared" si="3"/>
@@ -20885,7 +20885,7 @@
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B218" s="3">
         <f t="shared" si="3"/>
@@ -20972,7 +20972,7 @@
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B219" s="3">
         <f t="shared" si="3"/>
@@ -21059,7 +21059,7 @@
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B220" s="3">
         <f t="shared" si="3"/>
@@ -21146,7 +21146,7 @@
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B221" s="3">
         <f t="shared" si="3"/>
@@ -21233,7 +21233,7 @@
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B222" s="3">
         <f t="shared" si="3"/>
@@ -21320,7 +21320,7 @@
     </row>
     <row r="223" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B223" s="3">
         <f t="shared" si="3"/>
@@ -21407,7 +21407,7 @@
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B224" s="3">
         <f t="shared" si="3"/>
@@ -21494,7 +21494,7 @@
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B225" s="3">
         <f t="shared" si="3"/>
@@ -21581,7 +21581,7 @@
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B226" s="3">
         <f t="shared" si="3"/>
@@ -21668,7 +21668,7 @@
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B227" s="3">
         <f t="shared" si="3"/>
@@ -21755,7 +21755,7 @@
     </row>
     <row r="228" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="B228" s="3">
         <f t="shared" si="3"/>
@@ -21929,7 +21929,7 @@
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B230" s="3">
         <f t="shared" si="3"/>
@@ -22016,7 +22016,7 @@
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B231" s="3">
         <f t="shared" si="3"/>
@@ -22103,7 +22103,7 @@
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B232" s="3">
         <f t="shared" si="3"/>
@@ -22190,7 +22190,7 @@
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="B233" s="3">
         <f t="shared" si="3"/>
@@ -22277,7 +22277,7 @@
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B234" s="3">
         <f t="shared" si="3"/>
@@ -22364,7 +22364,7 @@
     </row>
     <row r="235" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B235" s="3">
         <f t="shared" si="3"/>
@@ -22451,7 +22451,7 @@
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="B236" s="3">
         <f t="shared" si="3"/>
@@ -22538,7 +22538,7 @@
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B237" s="3">
         <f t="shared" si="3"/>
@@ -22625,7 +22625,7 @@
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B238" s="3">
         <f t="shared" si="3"/>
@@ -22712,7 +22712,7 @@
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B239" s="3">
         <f t="shared" si="3"/>
@@ -22886,7 +22886,7 @@
     </row>
     <row r="241" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B241" s="3">
         <f t="shared" si="3"/>
@@ -22973,7 +22973,7 @@
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B242" s="3">
         <f t="shared" si="3"/>
@@ -23060,7 +23060,7 @@
     </row>
     <row r="243" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B243" s="3">
         <f t="shared" si="3"/>
@@ -23147,7 +23147,7 @@
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B244" s="3">
         <f t="shared" si="3"/>
@@ -23234,7 +23234,7 @@
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B245" s="3">
         <f t="shared" si="3"/>
@@ -23321,7 +23321,7 @@
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B246" s="3">
         <f t="shared" si="3"/>
@@ -23408,7 +23408,7 @@
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B247" s="3">
         <f t="shared" si="3"/>
@@ -23495,7 +23495,7 @@
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B248" s="3">
         <f t="shared" si="3"/>
@@ -23582,7 +23582,7 @@
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B249" s="3">
         <f t="shared" si="3"/>
@@ -23669,7 +23669,7 @@
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B250" s="3">
         <f t="shared" si="3"/>
@@ -23756,7 +23756,7 @@
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B251" s="3">
         <f t="shared" si="3"/>
@@ -23843,7 +23843,7 @@
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B252" s="3">
         <f t="shared" si="3"/>
@@ -23930,7 +23930,7 @@
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B253" s="3">
         <f t="shared" si="3"/>
@@ -24017,7 +24017,7 @@
     </row>
     <row r="254" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B254" s="3">
         <f t="shared" si="3"/>
@@ -24104,7 +24104,7 @@
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B255" s="3">
         <f t="shared" si="3"/>
@@ -24278,7 +24278,7 @@
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B257" s="3">
         <f t="shared" si="3"/>
@@ -24365,7 +24365,7 @@
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B258" s="3">
         <f t="shared" si="3"/>
@@ -24452,7 +24452,7 @@
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B259" s="3">
         <f t="shared" ref="B259:B322" si="4">(13.4673366834171/100)*C259+(6.03015075376885/100)*D259+(61.0050251256282/100)*E259+(18.1909547738694/100)*F259+(1.30653266331658/100)*G259</f>
@@ -24539,7 +24539,7 @@
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B260" s="3">
         <f t="shared" si="4"/>
@@ -24626,7 +24626,7 @@
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B261" s="3">
         <f t="shared" si="4"/>
@@ -24713,7 +24713,7 @@
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="B262" s="3">
         <f t="shared" si="4"/>
@@ -24800,7 +24800,7 @@
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B263" s="3">
         <f t="shared" si="4"/>
@@ -24887,7 +24887,7 @@
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B264" s="3">
         <f t="shared" si="4"/>
@@ -24974,7 +24974,7 @@
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B265" s="3">
         <f t="shared" si="4"/>
@@ -25148,7 +25148,7 @@
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B267" s="3">
         <f t="shared" si="4"/>
@@ -25322,7 +25322,7 @@
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B269" s="3">
         <f t="shared" si="4"/>
@@ -25409,7 +25409,7 @@
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B270" s="3">
         <f t="shared" si="4"/>
@@ -25496,7 +25496,7 @@
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B271" s="3">
         <f t="shared" si="4"/>
@@ -25583,7 +25583,7 @@
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="B272" s="3">
         <f t="shared" si="4"/>
@@ -25670,7 +25670,7 @@
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B273" s="3">
         <f t="shared" si="4"/>
@@ -25757,7 +25757,7 @@
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B274" s="3">
         <f t="shared" si="4"/>
@@ -25844,7 +25844,7 @@
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B275" s="3">
         <f t="shared" si="4"/>
@@ -25931,7 +25931,7 @@
     </row>
     <row r="276" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B276" s="3">
         <f t="shared" si="4"/>
@@ -26018,7 +26018,7 @@
     </row>
     <row r="277" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B277" s="3">
         <f t="shared" si="4"/>
@@ -26105,7 +26105,7 @@
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B278" s="3">
         <f t="shared" si="4"/>
@@ -26192,7 +26192,7 @@
     </row>
     <row r="279" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B279" s="3">
         <f t="shared" si="4"/>
@@ -26279,7 +26279,7 @@
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
-        <v>227</v>
+        <v>536</v>
       </c>
       <c r="B280" s="3">
         <f t="shared" si="4"/>
@@ -26366,7 +26366,7 @@
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B281" s="3">
         <f t="shared" si="4"/>
@@ -26453,7 +26453,7 @@
     </row>
     <row r="282" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B282" s="3">
         <f t="shared" si="4"/>
@@ -26540,7 +26540,7 @@
     </row>
     <row r="283" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="B283" s="3">
         <f t="shared" si="4"/>
@@ -26627,7 +26627,7 @@
     </row>
     <row r="284" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B284" s="3">
         <f t="shared" si="4"/>
@@ -26714,7 +26714,7 @@
     </row>
     <row r="285" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B285" s="3">
         <f t="shared" si="4"/>
@@ -26801,7 +26801,7 @@
     </row>
     <row r="286" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B286" s="3">
         <f t="shared" si="4"/>
@@ -26975,7 +26975,7 @@
     </row>
     <row r="288" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B288" s="3">
         <f t="shared" si="4"/>
@@ -27062,7 +27062,7 @@
     </row>
     <row r="289" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B289" s="3">
         <f t="shared" si="4"/>
@@ -27149,7 +27149,7 @@
     </row>
     <row r="290" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B290" s="3">
         <f t="shared" si="4"/>
@@ -27236,7 +27236,7 @@
     </row>
     <row r="291" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B291" s="3">
         <f t="shared" si="4"/>
@@ -27323,7 +27323,7 @@
     </row>
     <row r="292" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B292" s="3">
         <f t="shared" si="4"/>
@@ -27410,7 +27410,7 @@
     </row>
     <row r="293" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
-        <v>465</v>
+        <v>539</v>
       </c>
       <c r="B293" s="3">
         <f t="shared" si="4"/>
@@ -27497,7 +27497,7 @@
     </row>
     <row r="294" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B294" s="3">
         <f t="shared" si="4"/>
@@ -27584,7 +27584,7 @@
     </row>
     <row r="295" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B295" s="3">
         <f t="shared" si="4"/>
@@ -27671,7 +27671,7 @@
     </row>
     <row r="296" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B296" s="3">
         <f t="shared" si="4"/>
@@ -27758,7 +27758,7 @@
     </row>
     <row r="297" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B297" s="3">
         <f t="shared" si="4"/>
@@ -27845,7 +27845,7 @@
     </row>
     <row r="298" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B298" s="3">
         <f t="shared" si="4"/>
@@ -27932,7 +27932,7 @@
     </row>
     <row r="299" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="B299" s="3">
         <f t="shared" si="4"/>
@@ -28019,7 +28019,7 @@
     </row>
     <row r="300" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B300" s="3">
         <f t="shared" si="4"/>
@@ -28106,7 +28106,7 @@
     </row>
     <row r="301" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B301" s="3">
         <f t="shared" si="4"/>
@@ -28193,7 +28193,7 @@
     </row>
     <row r="302" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B302" s="3">
         <f t="shared" si="4"/>
@@ -28280,7 +28280,7 @@
     </row>
     <row r="303" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B303" s="3">
         <f t="shared" si="4"/>
@@ -28367,7 +28367,7 @@
     </row>
     <row r="304" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B304" s="3">
         <f t="shared" si="4"/>
@@ -28454,7 +28454,7 @@
     </row>
     <row r="305" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B305" s="3">
         <f t="shared" si="4"/>
@@ -28628,7 +28628,7 @@
     </row>
     <row r="307" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B307" s="3">
         <f t="shared" si="4"/>
@@ -28715,7 +28715,7 @@
     </row>
     <row r="308" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B308" s="3">
         <f t="shared" si="4"/>
@@ -28802,7 +28802,7 @@
     </row>
     <row r="309" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="B309" s="3">
         <f t="shared" si="4"/>
@@ -28889,7 +28889,7 @@
     </row>
     <row r="310" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B310" s="3">
         <f t="shared" si="4"/>
@@ -28976,7 +28976,7 @@
     </row>
     <row r="311" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B311" s="3">
         <f t="shared" si="4"/>
@@ -29063,7 +29063,7 @@
     </row>
     <row r="312" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B312" s="3">
         <f t="shared" si="4"/>
@@ -29237,7 +29237,7 @@
     </row>
     <row r="314" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="B314" s="3">
         <f t="shared" si="4"/>
@@ -29324,7 +29324,7 @@
     </row>
     <row r="315" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B315" s="3">
         <f t="shared" si="4"/>
@@ -29498,7 +29498,7 @@
     </row>
     <row r="317" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B317" s="3">
         <f t="shared" si="4"/>
@@ -29672,7 +29672,7 @@
     </row>
     <row r="319" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B319" s="3">
         <f t="shared" si="4"/>
@@ -29759,7 +29759,7 @@
     </row>
     <row r="320" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B320" s="3">
         <f t="shared" si="4"/>
@@ -29846,7 +29846,7 @@
     </row>
     <row r="321" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B321" s="3">
         <f t="shared" si="4"/>
@@ -29933,7 +29933,7 @@
     </row>
     <row r="322" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B322" s="3">
         <f t="shared" si="4"/>
@@ -30020,7 +30020,7 @@
     </row>
     <row r="323" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B323" s="3">
         <f t="shared" ref="B323:B386" si="5">(13.4673366834171/100)*C323+(6.03015075376885/100)*D323+(61.0050251256282/100)*E323+(18.1909547738694/100)*F323+(1.30653266331658/100)*G323</f>
@@ -30107,7 +30107,7 @@
     </row>
     <row r="324" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B324" s="3">
         <f t="shared" si="5"/>
@@ -30281,7 +30281,7 @@
     </row>
     <row r="326" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B326" s="3">
         <f t="shared" si="5"/>
@@ -30368,7 +30368,7 @@
     </row>
     <row r="327" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B327" s="3">
         <f t="shared" si="5"/>
@@ -30455,7 +30455,7 @@
     </row>
     <row r="328" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B328" s="3">
         <f t="shared" si="5"/>
@@ -30542,7 +30542,7 @@
     </row>
     <row r="329" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B329" s="3">
         <f t="shared" si="5"/>
@@ -30716,7 +30716,7 @@
     </row>
     <row r="331" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B331" s="3">
         <f t="shared" si="5"/>
@@ -30803,7 +30803,7 @@
     </row>
     <row r="332" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B332" s="3">
         <f t="shared" si="5"/>
@@ -30890,7 +30890,7 @@
     </row>
     <row r="333" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B333" s="3">
         <f t="shared" si="5"/>
@@ -30977,7 +30977,7 @@
     </row>
     <row r="334" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B334" s="3">
         <f t="shared" si="5"/>
@@ -31151,7 +31151,7 @@
     </row>
     <row r="336" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B336" s="3">
         <f t="shared" si="5"/>
@@ -31238,7 +31238,7 @@
     </row>
     <row r="337" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B337" s="3">
         <f t="shared" si="5"/>
@@ -31325,7 +31325,7 @@
     </row>
     <row r="338" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B338" s="3">
         <f t="shared" si="5"/>
@@ -31412,7 +31412,7 @@
     </row>
     <row r="339" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B339" s="3">
         <f t="shared" si="5"/>
@@ -31499,7 +31499,7 @@
     </row>
     <row r="340" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B340" s="3">
         <f t="shared" si="5"/>
@@ -31673,7 +31673,7 @@
     </row>
     <row r="342" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B342" s="3">
         <f t="shared" si="5"/>
@@ -31760,7 +31760,7 @@
     </row>
     <row r="343" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B343" s="3">
         <f t="shared" si="5"/>
@@ -31847,7 +31847,7 @@
     </row>
     <row r="344" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B344" s="3">
         <f t="shared" si="5"/>
@@ -31934,7 +31934,7 @@
     </row>
     <row r="345" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B345" s="3">
         <f t="shared" si="5"/>
@@ -32021,7 +32021,7 @@
     </row>
     <row r="346" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B346" s="3">
         <f t="shared" si="5"/>
@@ -32108,7 +32108,7 @@
     </row>
     <row r="347" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B347" s="3">
         <f t="shared" si="5"/>
@@ -32195,7 +32195,7 @@
     </row>
     <row r="348" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="B348" s="3">
         <f t="shared" si="5"/>
@@ -32282,7 +32282,7 @@
     </row>
     <row r="349" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B349" s="3">
         <f t="shared" si="5"/>
@@ -32369,7 +32369,7 @@
     </row>
     <row r="350" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B350" s="3">
         <f t="shared" si="5"/>
@@ -32456,7 +32456,7 @@
     </row>
     <row r="351" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B351" s="3">
         <f t="shared" si="5"/>
@@ -32543,7 +32543,7 @@
     </row>
     <row r="352" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B352" s="3">
         <f t="shared" si="5"/>
@@ -32630,7 +32630,7 @@
     </row>
     <row r="353" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B353" s="3">
         <f t="shared" si="5"/>
@@ -32717,7 +32717,7 @@
     </row>
     <row r="354" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B354" s="3">
         <f t="shared" si="5"/>
@@ -32804,7 +32804,7 @@
     </row>
     <row r="355" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B355" s="3">
         <f t="shared" si="5"/>
@@ -32891,7 +32891,7 @@
     </row>
     <row r="356" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B356" s="3">
         <f t="shared" si="5"/>
@@ -32978,7 +32978,7 @@
     </row>
     <row r="357" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B357" s="3">
         <f t="shared" si="5"/>
@@ -33065,7 +33065,7 @@
     </row>
     <row r="358" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B358" s="3">
         <f t="shared" si="5"/>
@@ -33152,7 +33152,7 @@
     </row>
     <row r="359" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B359" s="3">
         <f t="shared" si="5"/>
@@ -33326,7 +33326,7 @@
     </row>
     <row r="361" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B361" s="3">
         <f t="shared" si="5"/>
@@ -33413,7 +33413,7 @@
     </row>
     <row r="362" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B362" s="3">
         <f t="shared" si="5"/>
@@ -33500,7 +33500,7 @@
     </row>
     <row r="363" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B363" s="3">
         <f t="shared" si="5"/>
@@ -33587,7 +33587,7 @@
     </row>
     <row r="364" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B364" s="3">
         <f t="shared" si="5"/>
@@ -33674,7 +33674,7 @@
     </row>
     <row r="365" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B365" s="3">
         <f t="shared" si="5"/>
@@ -33761,7 +33761,7 @@
     </row>
     <row r="366" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B366" s="3">
         <f t="shared" si="5"/>
@@ -33848,7 +33848,7 @@
     </row>
     <row r="367" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B367" s="3">
         <f t="shared" si="5"/>
@@ -33935,7 +33935,7 @@
     </row>
     <row r="368" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B368" s="3">
         <f t="shared" si="5"/>
@@ -34109,7 +34109,7 @@
     </row>
     <row r="370" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B370" s="3">
         <f t="shared" si="5"/>
@@ -34196,7 +34196,7 @@
     </row>
     <row r="371" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B371" s="3">
         <f t="shared" si="5"/>
@@ -34283,7 +34283,7 @@
     </row>
     <row r="372" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B372" s="3">
         <f t="shared" si="5"/>
@@ -34370,7 +34370,7 @@
     </row>
     <row r="373" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="B373" s="3">
         <f t="shared" si="5"/>
@@ -34457,7 +34457,7 @@
     </row>
     <row r="374" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B374" s="3">
         <f t="shared" si="5"/>
@@ -34544,7 +34544,7 @@
     </row>
     <row r="375" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B375" s="3">
         <f t="shared" si="5"/>
@@ -34718,7 +34718,7 @@
     </row>
     <row r="377" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B377" s="3">
         <f t="shared" si="5"/>
@@ -34805,7 +34805,7 @@
     </row>
     <row r="378" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B378" s="3">
         <f t="shared" si="5"/>
@@ -34892,7 +34892,7 @@
     </row>
     <row r="379" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B379" s="3">
         <f t="shared" si="5"/>
@@ -34979,7 +34979,7 @@
     </row>
     <row r="380" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B380" s="3">
         <f t="shared" si="5"/>
@@ -35066,7 +35066,7 @@
     </row>
     <row r="381" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B381" s="3">
         <f t="shared" si="5"/>
@@ -35153,7 +35153,7 @@
     </row>
     <row r="382" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B382" s="3">
         <f t="shared" si="5"/>
@@ -35240,7 +35240,7 @@
     </row>
     <row r="383" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B383" s="3">
         <f t="shared" si="5"/>
@@ -35327,7 +35327,7 @@
     </row>
     <row r="384" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B384" s="3">
         <f t="shared" si="5"/>
@@ -35414,7 +35414,7 @@
     </row>
     <row r="385" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B385" s="3">
         <f t="shared" si="5"/>
@@ -35501,7 +35501,7 @@
     </row>
     <row r="386" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>295</v>
+        <v>537</v>
       </c>
       <c r="B386" s="3">
         <f t="shared" si="5"/>
@@ -35588,7 +35588,7 @@
     </row>
     <row r="387" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B387" s="3">
         <f t="shared" ref="B387:B450" si="6">(13.4673366834171/100)*C387+(6.03015075376885/100)*D387+(61.0050251256282/100)*E387+(18.1909547738694/100)*F387+(1.30653266331658/100)*G387</f>
@@ -35675,7 +35675,7 @@
     </row>
     <row r="388" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B388" s="3">
         <f t="shared" si="6"/>
@@ -35936,7 +35936,7 @@
     </row>
     <row r="391" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B391" s="3">
         <f t="shared" si="6"/>
@@ -36023,7 +36023,7 @@
     </row>
     <row r="392" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="B392" s="3">
         <f t="shared" si="6"/>
@@ -36110,7 +36110,7 @@
     </row>
     <row r="393" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B393" s="3">
         <f t="shared" si="6"/>
@@ -36197,7 +36197,7 @@
     </row>
     <row r="394" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B394" s="3">
         <f t="shared" si="6"/>
@@ -36284,7 +36284,7 @@
     </row>
     <row r="395" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B395" s="3">
         <f t="shared" si="6"/>
@@ -36371,7 +36371,7 @@
     </row>
     <row r="396" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B396" s="3">
         <f t="shared" si="6"/>
@@ -36458,7 +36458,7 @@
     </row>
     <row r="397" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B397" s="3">
         <f t="shared" si="6"/>
@@ -36545,7 +36545,7 @@
     </row>
     <row r="398" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B398" s="3">
         <f t="shared" si="6"/>
@@ -36632,7 +36632,7 @@
     </row>
     <row r="399" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B399" s="3">
         <f t="shared" si="6"/>
@@ -36719,7 +36719,7 @@
     </row>
     <row r="400" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B400" s="3">
         <f t="shared" si="6"/>
@@ -36806,7 +36806,7 @@
     </row>
     <row r="401" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B401" s="3">
         <f t="shared" si="6"/>
@@ -36893,7 +36893,7 @@
     </row>
     <row r="402" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B402" s="3">
         <f t="shared" si="6"/>
@@ -36980,7 +36980,7 @@
     </row>
     <row r="403" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B403" s="3">
         <f t="shared" si="6"/>
@@ -37067,7 +37067,7 @@
     </row>
     <row r="404" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B404" s="3">
         <f t="shared" si="6"/>
@@ -37154,7 +37154,7 @@
     </row>
     <row r="405" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="B405" s="3">
         <f t="shared" si="6"/>
@@ -37241,7 +37241,7 @@
     </row>
     <row r="406" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B406" s="3">
         <f t="shared" si="6"/>
@@ -37328,7 +37328,7 @@
     </row>
     <row r="407" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B407" s="3">
         <f t="shared" si="6"/>
@@ -37415,7 +37415,7 @@
     </row>
     <row r="408" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B408" s="3">
         <f t="shared" si="6"/>
@@ -37502,7 +37502,7 @@
     </row>
     <row r="409" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B409" s="3">
         <f t="shared" si="6"/>
@@ -37589,7 +37589,7 @@
     </row>
     <row r="410" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B410" s="3">
         <f t="shared" si="6"/>
@@ -37676,7 +37676,7 @@
     </row>
     <row r="411" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="B411" s="3">
         <f t="shared" si="6"/>
@@ -37850,7 +37850,7 @@
     </row>
     <row r="413" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B413" s="3">
         <f t="shared" si="6"/>
@@ -37937,7 +37937,7 @@
     </row>
     <row r="414" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="B414" s="3">
         <f t="shared" si="6"/>
@@ -38024,7 +38024,7 @@
     </row>
     <row r="415" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B415" s="3">
         <f t="shared" si="6"/>
@@ -38111,7 +38111,7 @@
     </row>
     <row r="416" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B416" s="3">
         <f t="shared" si="6"/>
@@ -38198,7 +38198,7 @@
     </row>
     <row r="417" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B417" s="3">
         <f t="shared" si="6"/>
@@ -38285,7 +38285,7 @@
     </row>
     <row r="418" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B418" s="3">
         <f t="shared" si="6"/>
@@ -38372,7 +38372,7 @@
     </row>
     <row r="419" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B419" s="3">
         <f t="shared" si="6"/>
@@ -38459,7 +38459,7 @@
     </row>
     <row r="420" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B420" s="3">
         <f t="shared" si="6"/>
@@ -38546,7 +38546,7 @@
     </row>
     <row r="421" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B421" s="3">
         <f t="shared" si="6"/>
@@ -38633,7 +38633,7 @@
     </row>
     <row r="422" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B422" s="3">
         <f t="shared" si="6"/>
@@ -38720,7 +38720,7 @@
     </row>
     <row r="423" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B423" s="3">
         <f t="shared" si="6"/>
@@ -38807,7 +38807,7 @@
     </row>
     <row r="424" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B424" s="3">
         <f t="shared" si="6"/>
@@ -39155,7 +39155,7 @@
     </row>
     <row r="428" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="B428" s="3">
         <f t="shared" si="6"/>
@@ -39242,7 +39242,7 @@
     </row>
     <row r="429" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B429" s="3">
         <f t="shared" si="6"/>
@@ -39329,7 +39329,7 @@
     </row>
     <row r="430" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="B430" s="3">
         <f t="shared" si="6"/>
@@ -39416,7 +39416,7 @@
     </row>
     <row r="431" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B431" s="3">
         <f t="shared" si="6"/>
@@ -39503,7 +39503,7 @@
     </row>
     <row r="432" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B432" s="3">
         <f t="shared" si="6"/>
@@ -39590,7 +39590,7 @@
     </row>
     <row r="433" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B433" s="3">
         <f t="shared" si="6"/>
@@ -39677,7 +39677,7 @@
     </row>
     <row r="434" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="B434" s="3">
         <f t="shared" si="6"/>
@@ -39851,7 +39851,7 @@
     </row>
     <row r="436" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B436" s="3">
         <f t="shared" si="6"/>
@@ -39938,7 +39938,7 @@
     </row>
     <row r="437" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="B437" s="3">
         <f t="shared" si="6"/>
@@ -40025,7 +40025,7 @@
     </row>
     <row r="438" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B438" s="3">
         <f t="shared" si="6"/>
@@ -40112,7 +40112,7 @@
     </row>
     <row r="439" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B439" s="3">
         <f t="shared" si="6"/>
@@ -40199,7 +40199,7 @@
     </row>
     <row r="440" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B440" s="3">
         <f t="shared" si="6"/>
@@ -40373,7 +40373,7 @@
     </row>
     <row r="442" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B442" s="3">
         <f t="shared" si="6"/>
@@ -40460,7 +40460,7 @@
     </row>
     <row r="443" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B443" s="3">
         <f t="shared" si="6"/>
@@ -40547,7 +40547,7 @@
     </row>
     <row r="444" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B444" s="3">
         <f t="shared" si="6"/>
@@ -40634,7 +40634,7 @@
     </row>
     <row r="445" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B445" s="3">
         <f t="shared" si="6"/>
@@ -40721,7 +40721,7 @@
     </row>
     <row r="446" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B446" s="3">
         <f t="shared" si="6"/>
@@ -40808,7 +40808,7 @@
     </row>
     <row r="447" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B447" s="3">
         <f t="shared" si="6"/>
@@ -40895,7 +40895,7 @@
     </row>
     <row r="448" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B448" s="3">
         <f t="shared" si="6"/>
@@ -40982,7 +40982,7 @@
     </row>
     <row r="449" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B449" s="3">
         <f t="shared" si="6"/>
@@ -41069,7 +41069,7 @@
     </row>
     <row r="450" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B450" s="3">
         <f t="shared" si="6"/>
@@ -41156,7 +41156,7 @@
     </row>
     <row r="451" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B451" s="3">
         <f t="shared" ref="B451:B514" si="7">(13.4673366834171/100)*C451+(6.03015075376885/100)*D451+(61.0050251256282/100)*E451+(18.1909547738694/100)*F451+(1.30653266331658/100)*G451</f>
@@ -41243,7 +41243,7 @@
     </row>
     <row r="452" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="B452" s="3">
         <f t="shared" si="7"/>
@@ -41330,7 +41330,7 @@
     </row>
     <row r="453" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B453" s="3">
         <f t="shared" si="7"/>
@@ -41417,7 +41417,7 @@
     </row>
     <row r="454" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B454" s="3">
         <f t="shared" si="7"/>
@@ -41591,7 +41591,7 @@
     </row>
     <row r="456" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A456" s="1" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B456" s="3">
         <f t="shared" si="7"/>
@@ -41678,7 +41678,7 @@
     </row>
     <row r="457" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B457" s="3">
         <f t="shared" si="7"/>
@@ -41765,7 +41765,7 @@
     </row>
     <row r="458" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="B458" s="3">
         <f t="shared" si="7"/>
@@ -41852,7 +41852,7 @@
     </row>
     <row r="459" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B459" s="3">
         <f t="shared" si="7"/>
@@ -41939,7 +41939,7 @@
     </row>
     <row r="460" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B460" s="3">
         <f t="shared" si="7"/>
@@ -42026,7 +42026,7 @@
     </row>
     <row r="461" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B461" s="3">
         <f t="shared" si="7"/>
@@ -42113,7 +42113,7 @@
     </row>
     <row r="462" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B462" s="3">
         <f t="shared" si="7"/>
@@ -42200,7 +42200,7 @@
     </row>
     <row r="463" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B463" s="3">
         <f t="shared" si="7"/>
@@ -42374,7 +42374,7 @@
     </row>
     <row r="465" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B465" s="3">
         <f t="shared" si="7"/>
@@ -42461,7 +42461,7 @@
     </row>
     <row r="466" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B466" s="3">
         <f t="shared" si="7"/>
@@ -42548,7 +42548,7 @@
     </row>
     <row r="467" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B467" s="3">
         <f t="shared" si="7"/>
@@ -42635,7 +42635,7 @@
     </row>
     <row r="468" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B468" s="3">
         <f t="shared" si="7"/>
@@ -42809,7 +42809,7 @@
     </row>
     <row r="470" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B470" s="3">
         <f t="shared" si="7"/>
@@ -42896,7 +42896,7 @@
     </row>
     <row r="471" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B471" s="3">
         <f t="shared" si="7"/>
@@ -42983,7 +42983,7 @@
     </row>
     <row r="472" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B472" s="3">
         <f t="shared" si="7"/>
@@ -43070,7 +43070,7 @@
     </row>
     <row r="473" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B473" s="3">
         <f t="shared" si="7"/>
@@ -43157,7 +43157,7 @@
     </row>
     <row r="474" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B474" s="3">
         <f t="shared" si="7"/>
@@ -43331,7 +43331,7 @@
     </row>
     <row r="476" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B476" s="3">
         <f t="shared" si="7"/>
@@ -43505,7 +43505,7 @@
     </row>
     <row r="478" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B478" s="3">
         <f t="shared" si="7"/>
@@ -43592,7 +43592,7 @@
     </row>
     <row r="479" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B479" s="3">
         <f t="shared" si="7"/>
@@ -43679,7 +43679,7 @@
     </row>
     <row r="480" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B480" s="3">
         <f t="shared" si="7"/>
@@ -43766,7 +43766,7 @@
     </row>
     <row r="481" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B481" s="3">
         <f t="shared" si="7"/>
@@ -43853,7 +43853,7 @@
     </row>
     <row r="482" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
-        <v>226</v>
+        <v>540</v>
       </c>
       <c r="B482" s="3">
         <f t="shared" si="7"/>
@@ -43940,7 +43940,7 @@
     </row>
     <row r="483" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B483" s="3">
         <f t="shared" si="7"/>
@@ -44027,7 +44027,7 @@
     </row>
     <row r="484" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B484" s="3">
         <f t="shared" si="7"/>
@@ -44201,7 +44201,7 @@
     </row>
     <row r="486" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="B486" s="3">
         <f t="shared" si="7"/>
@@ -44288,7 +44288,7 @@
     </row>
     <row r="487" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B487" s="3">
         <f t="shared" si="7"/>
@@ -44375,7 +44375,7 @@
     </row>
     <row r="488" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B488" s="3">
         <f t="shared" si="7"/>
@@ -44462,7 +44462,7 @@
     </row>
     <row r="489" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B489" s="3">
         <f t="shared" si="7"/>
@@ -44549,7 +44549,7 @@
     </row>
     <row r="490" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B490" s="3">
         <f t="shared" si="7"/>
@@ -44636,7 +44636,7 @@
     </row>
     <row r="491" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B491" s="3">
         <f t="shared" si="7"/>
@@ -44723,7 +44723,7 @@
     </row>
     <row r="492" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B492" s="3">
         <f t="shared" si="7"/>
@@ -44810,7 +44810,7 @@
     </row>
     <row r="493" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B493" s="3">
         <f t="shared" si="7"/>
@@ -44897,7 +44897,7 @@
     </row>
     <row r="494" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B494" s="3">
         <f t="shared" si="7"/>
@@ -44984,7 +44984,7 @@
     </row>
     <row r="495" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B495" s="3">
         <f t="shared" si="7"/>
@@ -45071,7 +45071,7 @@
     </row>
     <row r="496" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B496" s="3">
         <f t="shared" si="7"/>
@@ -45158,7 +45158,7 @@
     </row>
     <row r="497" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B497" s="3">
         <f t="shared" si="7"/>
@@ -45245,7 +45245,7 @@
     </row>
     <row r="498" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B498" s="3">
         <f t="shared" si="7"/>
@@ -45332,7 +45332,7 @@
     </row>
     <row r="499" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B499" s="3">
         <f t="shared" si="7"/>
@@ -45419,7 +45419,7 @@
     </row>
     <row r="500" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B500" s="3">
         <f t="shared" si="7"/>
@@ -45506,7 +45506,7 @@
     </row>
     <row r="501" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="B501" s="3">
         <f t="shared" si="7"/>
@@ -45593,7 +45593,7 @@
     </row>
     <row r="502" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B502" s="3">
         <f t="shared" si="7"/>
@@ -45680,7 +45680,7 @@
     </row>
     <row r="503" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B503" s="3">
         <f t="shared" si="7"/>
@@ -45767,7 +45767,7 @@
     </row>
     <row r="504" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="B504" s="3">
         <f t="shared" si="7"/>
@@ -45854,7 +45854,7 @@
     </row>
     <row r="505" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B505" s="3">
         <f t="shared" si="7"/>
@@ -45941,7 +45941,7 @@
     </row>
     <row r="506" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B506" s="3">
         <f t="shared" si="7"/>
@@ -46202,7 +46202,7 @@
     </row>
     <row r="509" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B509" s="3">
         <f t="shared" si="7"/>
@@ -46289,7 +46289,7 @@
     </row>
     <row r="510" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B510" s="3">
         <f t="shared" si="7"/>
@@ -46463,7 +46463,7 @@
     </row>
     <row r="512" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B512" s="3">
         <f t="shared" si="7"/>
@@ -46550,7 +46550,7 @@
     </row>
     <row r="513" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A513" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B513" s="3">
         <f t="shared" si="7"/>
@@ -46637,7 +46637,7 @@
     </row>
     <row r="514" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B514" s="3">
         <f t="shared" si="7"/>
@@ -46724,7 +46724,7 @@
     </row>
     <row r="515" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="B515" s="3">
         <f t="shared" ref="B515" si="8">(13.4673366834171/100)*C515+(6.03015075376885/100)*D515+(61.0050251256282/100)*E515+(18.1909547738694/100)*F515+(1.30653266331658/100)*G515</f>
